--- a/Output Table.xlsx
+++ b/Output Table.xlsx
@@ -2501,10 +2501,10 @@
         <v>3718</v>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D145" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>3722</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -2655,10 +2655,10 @@
         <v>3783</v>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C156" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -2711,13 +2711,13 @@
         <v>3801</v>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2753,10 +2753,10 @@
         <v>4717</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>4782</v>
       </c>
       <c r="B168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>4901</v>
       </c>
       <c r="B173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C173" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D173" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>5721</v>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
@@ -3117,13 +3117,13 @@
         <v>5722</v>
       </c>
       <c r="B189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C189" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3540,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4310,10 +4310,10 @@
         <v>2</v>
       </c>
       <c r="C274" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>11596</v>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D276" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5973,13 +5973,13 @@
         <v>11844</v>
       </c>
       <c r="B393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C393" t="n">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -6323,13 +6323,13 @@
         <v>11873</v>
       </c>
       <c r="B418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C418" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7110,10 +7110,10 @@
         <v>2</v>
       </c>
       <c r="C474" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7975,10 +7975,10 @@
         <v>12268</v>
       </c>
       <c r="B536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C536" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -8115,13 +8115,13 @@
         <v>12280</v>
       </c>
       <c r="B546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C546" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D546" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -8160,10 +8160,10 @@
         <v>2</v>
       </c>
       <c r="C549" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -8283,10 +8283,10 @@
         <v>12306</v>
       </c>
       <c r="B558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="D558" t="n">
         <v>0</v>
@@ -8353,13 +8353,13 @@
         <v>12312</v>
       </c>
       <c r="B563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C563" t="n">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -8493,13 +8493,13 @@
         <v>12328</v>
       </c>
       <c r="B573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C573" t="n">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -8815,13 +8815,13 @@
         <v>12361</v>
       </c>
       <c r="B596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C596" t="n">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -8913,13 +8913,13 @@
         <v>12369</v>
       </c>
       <c r="B603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C603" t="n">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -8955,13 +8955,13 @@
         <v>12372</v>
       </c>
       <c r="B606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C606" t="n">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -8983,13 +8983,13 @@
         <v>12375</v>
       </c>
       <c r="B608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C608" t="n">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -9081,13 +9081,13 @@
         <v>12385</v>
       </c>
       <c r="B615" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C615" t="n">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D615" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -9112,10 +9112,10 @@
         <v>2</v>
       </c>
       <c r="C617" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -9179,13 +9179,13 @@
         <v>12392</v>
       </c>
       <c r="B622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C622" t="n">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="D622" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -9854,10 +9854,10 @@
         <v>2</v>
       </c>
       <c r="C670" t="n">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D670" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -9938,10 +9938,10 @@
         <v>3</v>
       </c>
       <c r="C676" t="n">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D676" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -9952,10 +9952,10 @@
         <v>2</v>
       </c>
       <c r="C677" t="n">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="D677" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -10047,13 +10047,13 @@
         <v>12471</v>
       </c>
       <c r="B684" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C684" t="n">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -10117,13 +10117,13 @@
         <v>12478</v>
       </c>
       <c r="B689" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C689" t="n">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -10229,13 +10229,13 @@
         <v>12488</v>
       </c>
       <c r="B697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -10257,10 +10257,10 @@
         <v>12491</v>
       </c>
       <c r="B699" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C699" t="n">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="D699" t="n">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>2</v>
       </c>
       <c r="C758" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -11394,10 +11394,10 @@
         <v>2</v>
       </c>
       <c r="C780" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D780" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -11814,10 +11814,10 @@
         <v>2</v>
       </c>
       <c r="C810" t="n">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="D810" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -12136,10 +12136,10 @@
         <v>2</v>
       </c>
       <c r="C833" t="n">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D833" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -12192,10 +12192,10 @@
         <v>2</v>
       </c>
       <c r="C837" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D837" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -12206,10 +12206,10 @@
         <v>2</v>
       </c>
       <c r="C838" t="n">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D838" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -12710,10 +12710,10 @@
         <v>2</v>
       </c>
       <c r="C874" t="n">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D874" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -12850,10 +12850,10 @@
         <v>2</v>
       </c>
       <c r="C884" t="n">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="D884" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -12962,10 +12962,10 @@
         <v>2</v>
       </c>
       <c r="C892" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D892" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -12990,10 +12990,10 @@
         <v>2</v>
       </c>
       <c r="C894" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D894" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -13032,10 +13032,10 @@
         <v>2</v>
       </c>
       <c r="C897" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D897" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -13116,10 +13116,10 @@
         <v>2</v>
       </c>
       <c r="C903" t="n">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D903" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -13858,10 +13858,10 @@
         <v>2</v>
       </c>
       <c r="C956" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D956" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="957" spans="1:4">
@@ -14079,13 +14079,13 @@
         <v>15067</v>
       </c>
       <c r="B972" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C972" t="n">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="D972" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="973" spans="1:4">
@@ -14135,13 +14135,13 @@
         <v>15071</v>
       </c>
       <c r="B976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C976" t="n">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D976" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="977" spans="1:4">
@@ -14516,10 +14516,10 @@
         <v>2</v>
       </c>
       <c r="C1003" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D1003" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
@@ -14558,10 +14558,10 @@
         <v>2</v>
       </c>
       <c r="C1006" t="n">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D1006" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -14961,13 +14961,13 @@
         <v>15174</v>
       </c>
       <c r="B1035" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1035" t="n">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="D1035" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1036" spans="1:4">
@@ -15006,10 +15006,10 @@
         <v>2</v>
       </c>
       <c r="C1038" t="n">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="1039" spans="1:4">
@@ -15188,10 +15188,10 @@
         <v>2</v>
       </c>
       <c r="C1051" t="n">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D1051" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:4">
@@ -15664,10 +15664,10 @@
         <v>2</v>
       </c>
       <c r="C1085" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D1085" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086" spans="1:4">
@@ -15860,10 +15860,10 @@
         <v>1</v>
       </c>
       <c r="C1099" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D1099" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1100" spans="1:4">
@@ -16193,13 +16193,13 @@
         <v>15348</v>
       </c>
       <c r="B1123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1123" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1123" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1124" spans="1:4">
@@ -17159,13 +17159,13 @@
         <v>85375</v>
       </c>
       <c r="B1192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1192" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1192" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1193" spans="1:4">
@@ -17607,13 +17607,13 @@
         <v>85592</v>
       </c>
       <c r="B1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1224" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1224" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1225" spans="1:4">
@@ -17680,10 +17680,10 @@
         <v>2</v>
       </c>
       <c r="C1229" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D1229" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1230" spans="1:4">
@@ -18055,13 +18055,13 @@
         <v>86424</v>
       </c>
       <c r="B1256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1256" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1256" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1257" spans="1:4">
@@ -18209,13 +18209,13 @@
         <v>86481</v>
       </c>
       <c r="B1267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1267" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1267" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1268" spans="1:4">
@@ -18377,13 +18377,13 @@
         <v>86617</v>
       </c>
       <c r="B1279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1279" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D1279" t="n">
-        <v>120</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1280" spans="1:4">
@@ -18461,13 +18461,13 @@
         <v>86751</v>
       </c>
       <c r="B1285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1285" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1285" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1286" spans="1:4">
@@ -18727,13 +18727,13 @@
         <v>86897</v>
       </c>
       <c r="B1304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1304" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1304" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1305" spans="1:4">
@@ -19021,13 +19021,13 @@
         <v>87088</v>
       </c>
       <c r="B1325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1325" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1325" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1326" spans="1:4">
@@ -19707,10 +19707,10 @@
         <v>87758</v>
       </c>
       <c r="B1374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1374" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D1374" t="n">
         <v>0</v>
@@ -19752,10 +19752,10 @@
         <v>2</v>
       </c>
       <c r="C1377" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D1377" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:4">
@@ -20564,10 +20564,10 @@
         <v>2</v>
       </c>
       <c r="C1435" t="n">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D1435" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1436" spans="1:4">
@@ -20914,10 +20914,10 @@
         <v>2</v>
       </c>
       <c r="C1460" t="n">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D1460" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1461" spans="1:4">
@@ -21121,13 +21121,13 @@
         <v>90758</v>
       </c>
       <c r="B1475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1475" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1475" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -21166,10 +21166,10 @@
         <v>2</v>
       </c>
       <c r="C1478" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D1478" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1479" spans="1:4">
@@ -21222,10 +21222,10 @@
         <v>2</v>
       </c>
       <c r="C1482" t="n">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D1482" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1483" spans="1:4">
@@ -21334,10 +21334,10 @@
         <v>2</v>
       </c>
       <c r="C1490" t="n">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="D1490" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1491" spans="1:4">
@@ -21639,13 +21639,13 @@
         <v>91836</v>
       </c>
       <c r="B1512" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1512" t="n">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="D1512" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1513" spans="1:4">
@@ -21712,10 +21712,10 @@
         <v>2</v>
       </c>
       <c r="C1517" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D1517" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1518" spans="1:4">
@@ -22048,10 +22048,10 @@
         <v>2</v>
       </c>
       <c r="C1541" t="n">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D1541" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1542" spans="1:4">
@@ -22059,13 +22059,13 @@
         <v>92312</v>
       </c>
       <c r="B1542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1542" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1542" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -22216,10 +22216,10 @@
         <v>2</v>
       </c>
       <c r="C1553" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D1553" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1554" spans="1:4">
@@ -22577,13 +22577,13 @@
         <v>93180</v>
       </c>
       <c r="B1579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1579" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1579" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:4">
@@ -22608,10 +22608,10 @@
         <v>2</v>
       </c>
       <c r="C1581" t="n">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="D1581" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582" spans="1:4">
@@ -23294,10 +23294,10 @@
         <v>2</v>
       </c>
       <c r="C1630" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D1630" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1631" spans="1:4">
@@ -23322,10 +23322,10 @@
         <v>2</v>
       </c>
       <c r="C1632" t="n">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="D1632" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1633" spans="1:4">
@@ -23585,13 +23585,13 @@
         <v>94338</v>
       </c>
       <c r="B1651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1651" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D1651" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1652" spans="1:4">
@@ -23910,10 +23910,10 @@
         <v>2</v>
       </c>
       <c r="C1674" t="n">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D1674" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1675" spans="1:4">
@@ -23924,10 +23924,10 @@
         <v>2</v>
       </c>
       <c r="C1675" t="n">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="D1675" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1676" spans="1:4">
@@ -23938,10 +23938,10 @@
         <v>2</v>
       </c>
       <c r="C1676" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D1676" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677" spans="1:4">
@@ -24148,10 +24148,10 @@
         <v>2</v>
       </c>
       <c r="C1691" t="n">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D1691" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1692" spans="1:4">
@@ -24246,10 +24246,10 @@
         <v>2</v>
       </c>
       <c r="C1698" t="n">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D1698" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699" spans="1:4">
@@ -24260,10 +24260,10 @@
         <v>2</v>
       </c>
       <c r="C1699" t="n">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="D1699" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1700" spans="1:4">
@@ -24355,13 +24355,13 @@
         <v>95103</v>
       </c>
       <c r="B1706" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1706" t="n">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D1706" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1707" spans="1:4">
@@ -24537,13 +24537,13 @@
         <v>95311</v>
       </c>
       <c r="B1719" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1719" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1719" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720" spans="1:4">
@@ -25069,13 +25069,13 @@
         <v>95803</v>
       </c>
       <c r="B1757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1757" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1757" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1758" spans="1:4">
@@ -25167,13 +25167,13 @@
         <v>96052</v>
       </c>
       <c r="B1764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1764" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1764" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1765" spans="1:4">
@@ -25237,13 +25237,13 @@
         <v>96236</v>
       </c>
       <c r="B1769" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1769" t="n">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="D1769" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="1770" spans="1:4">
@@ -25296,10 +25296,10 @@
         <v>2</v>
       </c>
       <c r="C1773" t="n">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D1773" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1774" spans="1:4">
@@ -25352,10 +25352,10 @@
         <v>2</v>
       </c>
       <c r="C1777" t="n">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D1777" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1778" spans="1:4">
@@ -25391,13 +25391,13 @@
         <v>96343</v>
       </c>
       <c r="B1780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1780" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1780" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -25405,13 +25405,13 @@
         <v>96348</v>
       </c>
       <c r="B1781" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1781" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1781" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1782" spans="1:4">
@@ -25419,13 +25419,13 @@
         <v>96350</v>
       </c>
       <c r="B1782" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1782" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1782" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783" spans="1:4">
@@ -25447,13 +25447,13 @@
         <v>96360</v>
       </c>
       <c r="B1784" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1784" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D1784" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1785" spans="1:4">
@@ -25461,13 +25461,13 @@
         <v>96361</v>
       </c>
       <c r="B1785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1785" t="n">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D1785" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="1786" spans="1:4">
@@ -25629,13 +25629,13 @@
         <v>96441</v>
       </c>
       <c r="B1797" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1797" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1797" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1798" spans="1:4">
@@ -25713,13 +25713,13 @@
         <v>96471</v>
       </c>
       <c r="B1803" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1803" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1803" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1804" spans="1:4">
@@ -25755,13 +25755,13 @@
         <v>96510</v>
       </c>
       <c r="B1806" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1806" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1806" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807" spans="1:4">
@@ -25867,13 +25867,13 @@
         <v>96605</v>
       </c>
       <c r="B1814" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1814" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1814" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1815" spans="1:4">
@@ -25937,13 +25937,13 @@
         <v>96621</v>
       </c>
       <c r="B1819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1819" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1819" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1820" spans="1:4">
@@ -25965,13 +25965,13 @@
         <v>96623</v>
       </c>
       <c r="B1821" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1821" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D1821" t="n">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1822" spans="1:4">
@@ -25979,13 +25979,13 @@
         <v>96625</v>
       </c>
       <c r="B1822" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1822" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1822" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823" spans="1:4">
@@ -26049,13 +26049,13 @@
         <v>96677</v>
       </c>
       <c r="B1827" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1827" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1827" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828" spans="1:4">
@@ -26091,13 +26091,13 @@
         <v>96747</v>
       </c>
       <c r="B1830" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1830" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1830" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1831" spans="1:4">
@@ -26245,13 +26245,13 @@
         <v>97017</v>
       </c>
       <c r="B1841" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1841" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1841" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1842" spans="1:4">
@@ -26259,13 +26259,13 @@
         <v>97043</v>
       </c>
       <c r="B1842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1842" t="n">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="D1842" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1843" spans="1:4">
@@ -26273,13 +26273,13 @@
         <v>97097</v>
       </c>
       <c r="B1843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1843" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D1843" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1844" spans="1:4">
@@ -26287,13 +26287,13 @@
         <v>97098</v>
       </c>
       <c r="B1844" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1844" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1844" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1845" spans="1:4">
@@ -26430,10 +26430,10 @@
         <v>2</v>
       </c>
       <c r="C1854" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D1854" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1855" spans="1:4">
@@ -26441,13 +26441,13 @@
         <v>97211</v>
       </c>
       <c r="B1855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1855" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1855" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1856" spans="1:4">
@@ -26500,10 +26500,10 @@
         <v>2</v>
       </c>
       <c r="C1859" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D1859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1860" spans="1:4">
@@ -26525,13 +26525,13 @@
         <v>97250</v>
       </c>
       <c r="B1861" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1861" t="n">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D1861" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1862" spans="1:4">
@@ -26598,10 +26598,10 @@
         <v>2</v>
       </c>
       <c r="C1866" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D1866" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1867" spans="1:4">
@@ -26609,13 +26609,13 @@
         <v>97265</v>
       </c>
       <c r="B1867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1867" t="n">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="D1867" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1868" spans="1:4">
@@ -26679,13 +26679,13 @@
         <v>97279</v>
       </c>
       <c r="B1872" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1872" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1872" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -26920,10 +26920,10 @@
         <v>2</v>
       </c>
       <c r="C1889" t="n">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D1889" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1890" spans="1:4">
@@ -26987,13 +26987,13 @@
         <v>97556</v>
       </c>
       <c r="B1894" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1894" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1894" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1895" spans="1:4">
@@ -27043,13 +27043,13 @@
         <v>97562</v>
       </c>
       <c r="B1898" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1898" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1898" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1899" spans="1:4">
@@ -27323,13 +27323,13 @@
         <v>97851</v>
       </c>
       <c r="B1918" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1918" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D1918" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919" spans="1:4">
@@ -27368,10 +27368,10 @@
         <v>2</v>
       </c>
       <c r="C1921" t="n">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="D1921" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922" spans="1:4">
@@ -27435,13 +27435,13 @@
         <v>97899</v>
       </c>
       <c r="B1926" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1926" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1926" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1927" spans="1:4">
@@ -27634,10 +27634,10 @@
         <v>2</v>
       </c>
       <c r="C1940" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D1940" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1941" spans="1:4">
@@ -27841,13 +27841,13 @@
         <v>98197</v>
       </c>
       <c r="B1955" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1955" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1955" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1956" spans="1:4">
@@ -28023,13 +28023,13 @@
         <v>98586</v>
       </c>
       <c r="B1968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1968" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1968" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1969" spans="1:4">
@@ -28149,13 +28149,13 @@
         <v>98780</v>
       </c>
       <c r="B1977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1977" t="n">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D1977" t="n">
-        <v>54</v>
+        <v>144</v>
       </c>
     </row>
     <row r="1978" spans="1:4">
@@ -28401,13 +28401,13 @@
         <v>99089</v>
       </c>
       <c r="B1995" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1995" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D1995" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1996" spans="1:4">
@@ -28502,10 +28502,10 @@
         <v>2</v>
       </c>
       <c r="C2002" t="n">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D2002" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2003" spans="1:4">
@@ -28639,13 +28639,13 @@
         <v>99383</v>
       </c>
       <c r="B2012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="D2012" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2013" spans="1:4">
@@ -28723,13 +28723,13 @@
         <v>99446</v>
       </c>
       <c r="B2018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="n">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="D2018" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2019" spans="1:4">
@@ -29255,13 +29255,13 @@
         <v>99739</v>
       </c>
       <c r="B2056" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2056" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2056" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2057" spans="1:4">
@@ -29283,13 +29283,13 @@
         <v>99742</v>
       </c>
       <c r="B2058" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2058" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2058" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2059" spans="1:4">
@@ -29342,10 +29342,10 @@
         <v>2</v>
       </c>
       <c r="C2062" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D2062" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2063" spans="1:4">
@@ -29370,10 +29370,10 @@
         <v>2</v>
       </c>
       <c r="C2064" t="n">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D2064" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -29409,13 +29409,13 @@
         <v>99928</v>
       </c>
       <c r="B2067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2067" t="n">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D2067" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2068" spans="1:4">
@@ -29468,10 +29468,10 @@
         <v>2</v>
       </c>
       <c r="C2071" t="n">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D2071" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2072" spans="1:4">
@@ -29818,10 +29818,10 @@
         <v>2</v>
       </c>
       <c r="C2096" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D2096" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097" spans="1:4">
@@ -29927,13 +29927,13 @@
         <v>100332</v>
       </c>
       <c r="B2104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2104" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2104" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2105" spans="1:4">
@@ -29997,13 +29997,13 @@
         <v>100342</v>
       </c>
       <c r="B2109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2109" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2109" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2110" spans="1:4">
@@ -30011,13 +30011,13 @@
         <v>100343</v>
       </c>
       <c r="B2110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2110" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2110" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2111" spans="1:4">
@@ -30039,13 +30039,13 @@
         <v>100345</v>
       </c>
       <c r="B2112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2112" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2112" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2113" spans="1:4">
@@ -30081,13 +30081,13 @@
         <v>100355</v>
       </c>
       <c r="B2115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2115" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2115" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2116" spans="1:4">
@@ -30095,13 +30095,13 @@
         <v>100360</v>
       </c>
       <c r="B2116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2116" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2116" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2117" spans="1:4">
@@ -30137,13 +30137,13 @@
         <v>100363</v>
       </c>
       <c r="B2119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2119" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2119" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2120" spans="1:4">
@@ -30277,13 +30277,13 @@
         <v>100598</v>
       </c>
       <c r="B2129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2129" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2129" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2130" spans="1:4">
@@ -30319,13 +30319,13 @@
         <v>100624</v>
       </c>
       <c r="B2132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2132" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D2132" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2133" spans="1:4">
@@ -30420,10 +30420,10 @@
         <v>2</v>
       </c>
       <c r="C2139" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D2139" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2140" spans="1:4">
@@ -30431,13 +30431,13 @@
         <v>100678</v>
       </c>
       <c r="B2140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2140" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2140" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2141" spans="1:4">
@@ -30515,13 +30515,13 @@
         <v>100745</v>
       </c>
       <c r="B2146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2146" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D2146" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2147" spans="1:4">
@@ -30697,13 +30697,13 @@
         <v>100817</v>
       </c>
       <c r="B2159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2159" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2159" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2160" spans="1:4">
@@ -30725,13 +30725,13 @@
         <v>100828</v>
       </c>
       <c r="B2161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2161" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2161" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162" spans="1:4">
@@ -30809,13 +30809,13 @@
         <v>100975</v>
       </c>
       <c r="B2167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2167" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2167" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2168" spans="1:4">
@@ -30949,13 +30949,13 @@
         <v>101043</v>
       </c>
       <c r="B2177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2177" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2177" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178" spans="1:4">
@@ -30963,13 +30963,13 @@
         <v>101044</v>
       </c>
       <c r="B2178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2178" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2178" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2179" spans="1:4">
@@ -31033,13 +31033,13 @@
         <v>101107</v>
       </c>
       <c r="B2183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2183" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2183" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2184" spans="1:4">
@@ -31047,13 +31047,13 @@
         <v>101108</v>
       </c>
       <c r="B2184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2184" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2184" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2185" spans="1:4">
@@ -31075,13 +31075,13 @@
         <v>101110</v>
       </c>
       <c r="B2186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2186" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2186" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2187" spans="1:4">
@@ -31089,13 +31089,13 @@
         <v>101113</v>
       </c>
       <c r="B2187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2187" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2187" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2188" spans="1:4">
@@ -31117,13 +31117,13 @@
         <v>101185</v>
       </c>
       <c r="B2189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2189" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2189" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2190" spans="1:4">
@@ -31145,13 +31145,13 @@
         <v>101312</v>
       </c>
       <c r="B2191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2191" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2191" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2192" spans="1:4">
@@ -31215,13 +31215,13 @@
         <v>101429</v>
       </c>
       <c r="B2196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2196" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2196" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2197" spans="1:4">
@@ -31229,13 +31229,13 @@
         <v>101431</v>
       </c>
       <c r="B2197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2197" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2197" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2198" spans="1:4">
@@ -31243,13 +31243,13 @@
         <v>101432</v>
       </c>
       <c r="B2198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2198" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2198" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:4">
@@ -31285,13 +31285,13 @@
         <v>101440</v>
       </c>
       <c r="B2201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2201" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2201" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2202" spans="1:4">
@@ -31299,13 +31299,13 @@
         <v>101441</v>
       </c>
       <c r="B2202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2202" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2202" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2203" spans="1:4">
@@ -31397,13 +31397,13 @@
         <v>101644</v>
       </c>
       <c r="B2209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2209" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2209" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -31425,13 +31425,13 @@
         <v>101647</v>
       </c>
       <c r="B2211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2211" t="n">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="D2211" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2212" spans="1:4">
@@ -31467,13 +31467,13 @@
         <v>101651</v>
       </c>
       <c r="B2214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2214" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2214" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215" spans="1:4">
@@ -31523,13 +31523,13 @@
         <v>101655</v>
       </c>
       <c r="B2218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2218" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2218" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2219" spans="1:4">
@@ -31551,13 +31551,13 @@
         <v>101879</v>
       </c>
       <c r="B2220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2220" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2220" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2221" spans="1:4">
@@ -31565,13 +31565,13 @@
         <v>101880</v>
       </c>
       <c r="B2221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2221" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2221" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222" spans="1:4">
@@ -31610,10 +31610,10 @@
         <v>2</v>
       </c>
       <c r="C2224" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="D2224" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2225" spans="1:4">
@@ -31747,13 +31747,13 @@
         <v>101946</v>
       </c>
       <c r="B2234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2234" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2234" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2235" spans="1:4">
@@ -31831,13 +31831,13 @@
         <v>101985</v>
       </c>
       <c r="B2240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2240" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2240" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241" spans="1:4">
@@ -31845,13 +31845,13 @@
         <v>102014</v>
       </c>
       <c r="B2241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2241" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2241" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2242" spans="1:4">
@@ -31887,13 +31887,13 @@
         <v>102064</v>
       </c>
       <c r="B2244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2244" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2244" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2245" spans="1:4">
@@ -31901,13 +31901,13 @@
         <v>102125</v>
       </c>
       <c r="B2245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2245" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2245" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:4">
@@ -31915,13 +31915,13 @@
         <v>102194</v>
       </c>
       <c r="B2246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2246" t="n">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="D2246" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2247" spans="1:4">
@@ -31943,13 +31943,13 @@
         <v>102197</v>
       </c>
       <c r="B2248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2248" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D2248" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:4">
@@ -31971,13 +31971,13 @@
         <v>102199</v>
       </c>
       <c r="B2250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2250" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2250" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251" spans="1:4">
@@ -31985,13 +31985,13 @@
         <v>102200</v>
       </c>
       <c r="B2251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2251" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2251" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2252" spans="1:4">
@@ -31999,13 +31999,13 @@
         <v>102201</v>
       </c>
       <c r="B2252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2252" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2252" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:4">
@@ -32069,13 +32069,13 @@
         <v>102207</v>
       </c>
       <c r="B2257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2257" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2257" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258" spans="1:4">
@@ -32237,13 +32237,13 @@
         <v>102396</v>
       </c>
       <c r="B2269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2269" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D2269" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:4">
@@ -32251,13 +32251,13 @@
         <v>102443</v>
       </c>
       <c r="B2270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2270" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2270" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2271" spans="1:4">
@@ -32391,13 +32391,13 @@
         <v>102539</v>
       </c>
       <c r="B2280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2280" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2280" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:4">
@@ -32408,10 +32408,10 @@
         <v>2</v>
       </c>
       <c r="C2281" t="n">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="D2281" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2282" spans="1:4">
@@ -33399,13 +33399,13 @@
         <v>103243</v>
       </c>
       <c r="B2352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2352" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2352" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2353" spans="1:4">
@@ -34113,13 +34113,13 @@
         <v>104310</v>
       </c>
       <c r="B2403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2403" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D2403" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2404" spans="1:4">
@@ -34351,13 +34351,13 @@
         <v>104561</v>
       </c>
       <c r="B2420" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2420" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D2420" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2421" spans="1:4">
@@ -35048,40 +35048,40 @@
         <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>138767</v>
+        <v>138757</v>
       </c>
       <c r="C3" t="n">
-        <v>129740</v>
+        <v>129817</v>
       </c>
       <c r="D3" t="n">
-        <v>135161</v>
+        <v>135049</v>
       </c>
       <c r="E3" t="n">
-        <v>135689</v>
+        <v>135679</v>
       </c>
       <c r="F3" t="n">
-        <v>137243</v>
+        <v>136428</v>
       </c>
       <c r="G3" t="n">
-        <v>159277</v>
+        <v>159641</v>
       </c>
       <c r="H3" t="n">
-        <v>157399</v>
+        <v>156294</v>
       </c>
       <c r="I3" t="n">
-        <v>157533</v>
+        <v>158843</v>
       </c>
       <c r="J3" t="n">
-        <v>158266</v>
+        <v>158894</v>
       </c>
       <c r="K3" t="n">
-        <v>144881</v>
+        <v>143890</v>
       </c>
       <c r="L3" t="n">
-        <v>158385</v>
+        <v>153136</v>
       </c>
       <c r="M3" t="n">
-        <v>162334</v>
+        <v>164276</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -35092,37 +35092,37 @@
         <v>549</v>
       </c>
       <c r="C4" t="n">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D4" t="n">
         <v>581</v>
       </c>
       <c r="E4" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F4" t="n">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G4" t="n">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H4" t="n">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="I4" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="J4" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L4" t="n">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="M4" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -35130,40 +35130,40 @@
         <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>37091</v>
+        <v>37101</v>
       </c>
       <c r="C5" t="n">
-        <v>46021</v>
+        <v>45944</v>
       </c>
       <c r="D5" t="n">
-        <v>40626</v>
+        <v>40738</v>
       </c>
       <c r="E5" t="n">
-        <v>40300</v>
+        <v>40310</v>
       </c>
       <c r="F5" t="n">
-        <v>38674</v>
+        <v>39489</v>
       </c>
       <c r="G5" t="n">
-        <v>16487</v>
+        <v>16123</v>
       </c>
       <c r="H5" t="n">
-        <v>18479</v>
+        <v>19584</v>
       </c>
       <c r="I5" t="n">
-        <v>18273</v>
+        <v>16963</v>
       </c>
       <c r="J5" t="n">
-        <v>17554</v>
+        <v>16926</v>
       </c>
       <c r="K5" t="n">
-        <v>30953</v>
+        <v>31944</v>
       </c>
       <c r="L5" t="n">
-        <v>17385</v>
+        <v>22634</v>
       </c>
       <c r="M5" t="n">
-        <v>13322</v>
+        <v>11380</v>
       </c>
     </row>
   </sheetData>
@@ -35234,10 +35234,10 @@
         <v>31746</v>
       </c>
       <c r="C2" t="n">
-        <v>29262</v>
+        <v>29242</v>
       </c>
       <c r="D2" t="n">
-        <v>33854</v>
+        <v>33821</v>
       </c>
       <c r="E2" t="n">
         <v>33549</v>
@@ -35258,13 +35258,13 @@
         <v>35700</v>
       </c>
       <c r="K2" t="n">
-        <v>34229</v>
+        <v>34239</v>
       </c>
       <c r="L2" t="n">
-        <v>34256</v>
+        <v>31484</v>
       </c>
       <c r="M2" t="n">
-        <v>38005</v>
+        <v>38015</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -35272,10 +35272,10 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>10161</v>
+        <v>10151</v>
       </c>
       <c r="C3" t="n">
-        <v>10833</v>
+        <v>10923</v>
       </c>
       <c r="D3" t="n">
         <v>10320</v>
@@ -35284,7 +35284,7 @@
         <v>10215</v>
       </c>
       <c r="F3" t="n">
-        <v>15383</v>
+        <v>15303</v>
       </c>
       <c r="G3" t="n">
         <v>15878</v>
@@ -35319,28 +35319,28 @@
         <v>9241</v>
       </c>
       <c r="D4" t="n">
-        <v>10352</v>
+        <v>10320</v>
       </c>
       <c r="E4" t="n">
-        <v>10182</v>
+        <v>10201</v>
       </c>
       <c r="F4" t="n">
-        <v>10180</v>
+        <v>10155</v>
       </c>
       <c r="G4" t="n">
-        <v>9530</v>
+        <v>9340</v>
       </c>
       <c r="H4" t="n">
-        <v>11564</v>
+        <v>10137</v>
       </c>
       <c r="I4" t="n">
-        <v>10123</v>
+        <v>11533</v>
       </c>
       <c r="J4" t="n">
-        <v>10974</v>
+        <v>11614</v>
       </c>
       <c r="K4" t="n">
-        <v>12031</v>
+        <v>11851</v>
       </c>
       <c r="L4" t="n">
         <v>12049</v>
@@ -35363,7 +35363,7 @@
         <v>10967</v>
       </c>
       <c r="E5" t="n">
-        <v>11806</v>
+        <v>11837</v>
       </c>
       <c r="F5" t="n">
         <v>11639</v>
@@ -35375,19 +35375,19 @@
         <v>13187</v>
       </c>
       <c r="I5" t="n">
-        <v>13670</v>
+        <v>13680</v>
       </c>
       <c r="J5" t="n">
         <v>14186</v>
       </c>
       <c r="K5" t="n">
-        <v>10910</v>
+        <v>10110</v>
       </c>
       <c r="L5" t="n">
-        <v>14313</v>
+        <v>13963</v>
       </c>
       <c r="M5" t="n">
-        <v>13110</v>
+        <v>13830</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -35401,7 +35401,7 @@
         <v>10177</v>
       </c>
       <c r="D6" t="n">
-        <v>9860</v>
+        <v>9850</v>
       </c>
       <c r="E6" t="n">
         <v>9969</v>
@@ -35413,7 +35413,7 @@
         <v>12015</v>
       </c>
       <c r="H6" t="n">
-        <v>11496</v>
+        <v>11488</v>
       </c>
       <c r="I6" t="n">
         <v>11957</v>
@@ -35422,13 +35422,13 @@
         <v>12292</v>
       </c>
       <c r="K6" t="n">
-        <v>9968</v>
+        <v>9942</v>
       </c>
       <c r="L6" t="n">
-        <v>12391</v>
+        <v>11851</v>
       </c>
       <c r="M6" t="n">
-        <v>11530</v>
+        <v>12330</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -35439,16 +35439,16 @@
         <v>34789</v>
       </c>
       <c r="C7" t="n">
-        <v>36442</v>
+        <v>36474</v>
       </c>
       <c r="D7" t="n">
-        <v>35064</v>
+        <v>35054</v>
       </c>
       <c r="E7" t="n">
-        <v>35280</v>
+        <v>35246</v>
       </c>
       <c r="F7" t="n">
-        <v>32951</v>
+        <v>32949</v>
       </c>
       <c r="G7" t="n">
         <v>40978</v>
@@ -35460,16 +35460,16 @@
         <v>40144</v>
       </c>
       <c r="J7" t="n">
-        <v>40047</v>
+        <v>40035</v>
       </c>
       <c r="K7" t="n">
         <v>33954</v>
       </c>
       <c r="L7" t="n">
-        <v>39266</v>
+        <v>38549</v>
       </c>
       <c r="M7" t="n">
-        <v>41422</v>
+        <v>41242</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -35483,7 +35483,7 @@
         <v>5393</v>
       </c>
       <c r="D8" t="n">
-        <v>5525</v>
+        <v>5515</v>
       </c>
       <c r="E8" t="n">
         <v>6105</v>
@@ -35492,7 +35492,7 @@
         <v>5782</v>
       </c>
       <c r="G8" t="n">
-        <v>6241</v>
+        <v>6231</v>
       </c>
       <c r="H8" t="n">
         <v>6296</v>
@@ -35521,10 +35521,10 @@
         <v>5233</v>
       </c>
       <c r="C9" t="n">
-        <v>4854</v>
+        <v>4829</v>
       </c>
       <c r="D9" t="n">
-        <v>4956</v>
+        <v>4929</v>
       </c>
       <c r="E9" t="n">
         <v>5278</v>
@@ -35533,7 +35533,7 @@
         <v>5087</v>
       </c>
       <c r="G9" t="n">
-        <v>5466</v>
+        <v>5495</v>
       </c>
       <c r="H9" t="n">
         <v>5341</v>
@@ -35545,7 +35545,7 @@
         <v>5288</v>
       </c>
       <c r="K9" t="n">
-        <v>5126</v>
+        <v>5116</v>
       </c>
       <c r="L9" t="n">
         <v>5282</v>
@@ -35571,28 +35571,28 @@
         <v>6161</v>
       </c>
       <c r="F10" t="n">
-        <v>5901</v>
+        <v>5903</v>
       </c>
       <c r="G10" t="n">
-        <v>7063</v>
+        <v>7058</v>
       </c>
       <c r="H10" t="n">
         <v>7188</v>
       </c>
       <c r="I10" t="n">
-        <v>7220</v>
+        <v>7200</v>
       </c>
       <c r="J10" t="n">
         <v>7079</v>
       </c>
       <c r="K10" t="n">
-        <v>6144</v>
+        <v>6159</v>
       </c>
       <c r="L10" t="n">
-        <v>7674</v>
+        <v>6804</v>
       </c>
       <c r="M10" t="n">
-        <v>6796</v>
+        <v>7388</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -35606,22 +35606,22 @@
         <v>7067</v>
       </c>
       <c r="D11" t="n">
-        <v>7623</v>
+        <v>7633</v>
       </c>
       <c r="E11" t="n">
-        <v>7144</v>
+        <v>7118</v>
       </c>
       <c r="F11" t="n">
-        <v>10702</v>
+        <v>9992</v>
       </c>
       <c r="G11" t="n">
-        <v>11021</v>
+        <v>11561</v>
       </c>
       <c r="H11" t="n">
-        <v>11098</v>
+        <v>11428</v>
       </c>
       <c r="I11" t="n">
-        <v>11260</v>
+        <v>11170</v>
       </c>
       <c r="J11" t="n">
         <v>11464</v>
